--- a/Model2/excel/results/Comparison_comp_PEM.xlsx
+++ b/Model2/excel/results/Comparison_comp_PEM.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="7225" sheetId="2" r:id="rId2"/>
     <sheet name="7897" sheetId="3" r:id="rId3"/>
+    <sheet name="1177" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
   <si>
     <t>G</t>
   </si>
@@ -95,6 +96,9 @@
   </si>
   <si>
     <t>1500/3000-flat</t>
+  </si>
+  <si>
+    <t>Moving frames</t>
   </si>
 </sst>
 </file>
@@ -839,6 +843,670 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1177'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reference</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1177'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CCGT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nuclear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCGT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WIND_ON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1177'!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3591.7504630897702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1858.8762114195799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5474.8598430606298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250.9907678076599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7703.9286162674798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A535-4D5F-852D-02E6BC6A2EE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1177'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1177'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CCGT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nuclear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCGT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WIND_ON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1177'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3206.5511593461802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2101.0503439012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5680.2433627047903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7703.9195005603897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A535-4D5F-852D-02E6BC6A2EE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1177'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1177'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CCGT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nuclear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCGT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WIND_ON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1177'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3092.6779367373601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2119.56581560021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5701.4808018224203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141.95961320888199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7703.9283963823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A535-4D5F-852D-02E6BC6A2EE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1177'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Elasticities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1177'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CCGT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nuclear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCGT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WIND_ON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1177'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3219.3171483737301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2104.2940381799099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5680.6559566514297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7703.93082749519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A535-4D5F-852D-02E6BC6A2EE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'1177'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Moving frames</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'1177'!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>CCGT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Coal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Nuclear</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OCGT</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>WIND_ON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'1177'!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3190.9912987544399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2090.2576566922999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5681.6780512553996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.748501316375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7703.9286162674698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A535-4D5F-852D-02E6BC6A2EE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="407374232"/>
+        <c:axId val="407367344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="407374232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407367344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407367344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407374232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
@@ -876,6 +1544,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
@@ -1341,6 +2049,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1363,6 +2574,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1879,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2165,12 +3411,301 @@
         <v>0.97995584853627382</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="F11:H11" si="0">G9/$B9</f>
+        <f t="shared" ref="G11:H11" si="0">G9/$B9</f>
         <v>9.8356581469597901E-2</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
         <v>0.97902858323692488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>SUM(B2:B7)</f>
+        <v>29235.960908555848</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:H14" si="1">SUM(C2:C7)</f>
+        <v>28435.299200548354</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>28439.112600022279</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>28436.755611465716</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>27892.189873821128</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>28120.086931860205</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>27837.821631295585</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>3591.7504630897702</v>
+      </c>
+      <c r="C2">
+        <v>3206.5511593461802</v>
+      </c>
+      <c r="D2">
+        <v>3092.6779367373601</v>
+      </c>
+      <c r="E2">
+        <v>3219.3171483737301</v>
+      </c>
+      <c r="F2">
+        <v>3190.9912987544399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1858.8762114195799</v>
+      </c>
+      <c r="C3">
+        <v>2101.0503439012</v>
+      </c>
+      <c r="D3">
+        <v>2119.56581560021</v>
+      </c>
+      <c r="E3">
+        <v>2104.2940381799099</v>
+      </c>
+      <c r="F3">
+        <v>2090.2576566922999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>5474.8598430606298</v>
+      </c>
+      <c r="C4">
+        <v>5680.2433627047903</v>
+      </c>
+      <c r="D4">
+        <v>5701.4808018224203</v>
+      </c>
+      <c r="E4">
+        <v>5680.6559566514297</v>
+      </c>
+      <c r="F4">
+        <v>5681.6780512553996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1250.9907678076599</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>141.95961320888199</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>111.748501316375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3000</v>
+      </c>
+      <c r="C6">
+        <v>3000</v>
+      </c>
+      <c r="D6">
+        <v>3000</v>
+      </c>
+      <c r="E6">
+        <v>3000</v>
+      </c>
+      <c r="F6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>7703.9286162674798</v>
+      </c>
+      <c r="C7">
+        <v>7703.9195005603897</v>
+      </c>
+      <c r="D7">
+        <v>7703.9283963823</v>
+      </c>
+      <c r="E7">
+        <v>7703.93082749519</v>
+      </c>
+      <c r="F7">
+        <v>7703.9286162674698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6750587740</v>
+      </c>
+      <c r="C10">
+        <v>6648200079</v>
+      </c>
+      <c r="D10">
+        <v>6655022525</v>
+      </c>
+      <c r="E10">
+        <v>6650079658</v>
+      </c>
+      <c r="F10">
+        <v>6656571888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>C10/B10</f>
+        <v>0.98483277827894733</v>
+      </c>
+      <c r="D12">
+        <f>D10/B10</f>
+        <v>0.9858434230202302</v>
+      </c>
+      <c r="E12">
+        <f>E10/$B10</f>
+        <v>0.98511121018330772</v>
+      </c>
+      <c r="F12">
+        <f>F10/$B10</f>
+        <v>0.98607293829499953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>SUM(B2:B7)</f>
+        <v>22880.405901645121</v>
+      </c>
+      <c r="C15">
+        <f>SUM(C2:C7)</f>
+        <v>21691.764366512562</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D2:D7)</f>
+        <v>21759.612563751172</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E2:E7)</f>
+        <v>21708.197970700261</v>
+      </c>
+      <c r="F15">
+        <f>SUM(F2:F7)</f>
+        <v>21778.604124285983</v>
       </c>
     </row>
   </sheetData>
